--- a/data/trans_orig/P64E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4856</v>
+        <v>4514</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004823490990609759</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02763343337692916</v>
+        <v>0.02569138615191456</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4442</v>
+        <v>5430</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006239991970387188</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03157233834423283</v>
+        <v>0.03859406198442163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5994</v>
+        <v>5303</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005453323672315397</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01894265489748944</v>
+        <v>0.01675971496878665</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6018</v>
+        <v>5903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01103871521786046</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03424969810675145</v>
+        <v>0.03359384520270044</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8218</v>
+        <v>8598</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01749267569241043</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05841414111009692</v>
+        <v>0.06111385892294254</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -857,19 +857,19 @@
         <v>4401</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>960</v>
+        <v>986</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10605</v>
+        <v>10691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01390840277285722</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003034819463015315</v>
+        <v>0.003115391915160762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03351637898714141</v>
+        <v>0.03378846170207146</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5219</v>
+        <v>3800</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004764336120172503</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02969857874759353</v>
+        <v>0.02162732051861186</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7017</v>
+        <v>7389</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01419570240804379</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04987915998199972</v>
+        <v>0.05252053755690351</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -928,19 +928,19 @@
         <v>2834</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7541</v>
+        <v>8062</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008957896736114673</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002644321110879353</v>
+        <v>0.002627095846970474</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0238340581769641</v>
+        <v>0.02547882487959334</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>7252</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3000</v>
+        <v>2883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15760</v>
+        <v>16335</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04126949798291294</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01707271706098743</v>
+        <v>0.01640538014886405</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.089685801918366</v>
+        <v>0.09296086123002625</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6251</v>
+        <v>6398</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01285174312256855</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0444285141822585</v>
+        <v>0.0454743088764711</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -999,19 +999,19 @@
         <v>9060</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4018</v>
+        <v>4615</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17121</v>
+        <v>18210</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02863383376010636</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0126972602148141</v>
+        <v>0.01458592630872245</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05411083626462775</v>
+        <v>0.05755278419753943</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>164844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>157142</v>
+        <v>157002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>170321</v>
+        <v>170905</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9381039596884443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8942753395166405</v>
+        <v>0.893478228472692</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9692768149116013</v>
+        <v>0.9725994767588606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>135</v>
@@ -1049,19 +1049,19 @@
         <v>133544</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>126264</v>
+        <v>126536</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>137882</v>
+        <v>137805</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9492198868065901</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8974765487823333</v>
+        <v>0.8994105040682463</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9800562164408748</v>
+        <v>0.9795076092826663</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>295</v>
@@ -1070,19 +1070,19 @@
         <v>298387</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>289017</v>
+        <v>288608</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>305869</v>
+        <v>305939</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9430465430586064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9134325737993469</v>
+        <v>0.9121378051880044</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9666929277465485</v>
+        <v>0.9669143591207453</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>4867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1046</v>
+        <v>975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12643</v>
+        <v>11854</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008792368539512079</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001889316275197551</v>
+        <v>0.001760857843263685</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02284101943822483</v>
+        <v>0.02141589411079278</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1195,19 +1195,19 @@
         <v>4846</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1890</v>
+        <v>1878</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10972</v>
+        <v>10874</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01431271703876052</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005582586620136434</v>
+        <v>0.005547216125540979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03240865542821431</v>
+        <v>0.03211808685043173</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1216,19 +1216,19 @@
         <v>9712</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4800</v>
+        <v>4804</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18589</v>
+        <v>16949</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01088745692858275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005380877095909782</v>
+        <v>0.005384818302061934</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02083848871539888</v>
+        <v>0.01900039460403656</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>10829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5094</v>
+        <v>5029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21488</v>
+        <v>21586</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01956435232304581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009203409007516778</v>
+        <v>0.009085044001700206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03882239616588987</v>
+        <v>0.03899885253344513</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1266,19 +1266,19 @@
         <v>5163</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12130</v>
+        <v>11487</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01524945943960471</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005923552302852525</v>
+        <v>0.005919840340663437</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03582904112916982</v>
+        <v>0.03393072939712784</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1287,19 +1287,19 @@
         <v>15992</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8975</v>
+        <v>9618</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26170</v>
+        <v>27196</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01792675969978808</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01006092638299269</v>
+        <v>0.01078133610609382</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02933694514272292</v>
+        <v>0.03048631118021763</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>7622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3756</v>
+        <v>3633</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14919</v>
+        <v>14410</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01377001504574585</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00678596040017188</v>
+        <v>0.006563356614613311</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02695439529698278</v>
+        <v>0.02603444932409293</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1337,19 +1337,19 @@
         <v>2812</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8013</v>
+        <v>8198</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008305912122742329</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002380695595023193</v>
+        <v>0.00236246052861394</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02366757557192624</v>
+        <v>0.02421575839272042</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1358,19 +1358,19 @@
         <v>10434</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5549</v>
+        <v>5661</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17880</v>
+        <v>17962</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01169627303611904</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006220716543784788</v>
+        <v>0.006346523911632487</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02004373537047427</v>
+        <v>0.02013507826671981</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>63705</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50197</v>
+        <v>49650</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79243</v>
+        <v>79435</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1150939103326026</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09068992391192505</v>
+        <v>0.08970135192918455</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1431660816312601</v>
+        <v>0.1435132500254591</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1408,19 +1408,19 @@
         <v>22248</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13783</v>
+        <v>14331</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32593</v>
+        <v>33103</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06571340741618466</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04071058676953835</v>
+        <v>0.04233095432423367</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09627124237240298</v>
+        <v>0.09777607878284227</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -1429,19 +1429,19 @@
         <v>85953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70516</v>
+        <v>68964</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>105090</v>
+        <v>104501</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09635297063998309</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07904897516205843</v>
+        <v>0.07730913774185803</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1178060169291352</v>
+        <v>0.1171460347925549</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>466482</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>448242</v>
+        <v>448450</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>483052</v>
+        <v>484224</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8427793537590936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8098252923410183</v>
+        <v>0.810201683355888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8727172418451146</v>
+        <v>0.8748332083411843</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -1479,19 +1479,19 @@
         <v>303487</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>291477</v>
+        <v>291107</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>314022</v>
+        <v>313443</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8964185039827078</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8609448525721032</v>
+        <v>0.859851232950488</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9275361709661613</v>
+        <v>0.9258252051839587</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>725</v>
@@ -1500,19 +1500,19 @@
         <v>769970</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>747192</v>
+        <v>748670</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>788889</v>
+        <v>790350</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8631365396955271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8376030558579086</v>
+        <v>0.8392601073942324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8843449273112264</v>
+        <v>0.8859829400883839</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>12650</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6747</v>
+        <v>6469</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21473</v>
+        <v>21513</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02263754569999074</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01207327289756558</v>
+        <v>0.01157698503998036</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03842593049388137</v>
+        <v>0.03849666887703519</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5973</v>
+        <v>6887</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00648153063847258</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01974509086245175</v>
+        <v>0.02276649025833971</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1646,19 +1646,19 @@
         <v>14611</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7817</v>
+        <v>8440</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24303</v>
+        <v>23874</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01696321346323141</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009074933202482654</v>
+        <v>0.009799304274657542</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02821510274543806</v>
+        <v>0.02771774910684409</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>10156</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5023</v>
+        <v>5180</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18763</v>
+        <v>17268</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01817446362717655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008988686772853511</v>
+        <v>0.009270267520380885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03357563160605682</v>
+        <v>0.03090040586798262</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1696,19 +1696,19 @@
         <v>4759</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1650</v>
+        <v>1150</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12127</v>
+        <v>11988</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01573189911545532</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005454815718708393</v>
+        <v>0.00380049432499346</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04008545914474426</v>
+        <v>0.03962781416159417</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1717,19 +1717,19 @@
         <v>14915</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8084</v>
+        <v>8482</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23232</v>
+        <v>25459</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01731658360562117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009385379754617118</v>
+        <v>0.009847261219069528</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02697158000707844</v>
+        <v>0.02955718143592722</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>18882</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12235</v>
+        <v>11925</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28512</v>
+        <v>29140</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03378909730391679</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02189479322387883</v>
+        <v>0.02133916181138478</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05102179395602771</v>
+        <v>0.05214510237745448</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6819</v>
+        <v>7255</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.006902246617432326</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02254116042563409</v>
+        <v>0.02398361435019968</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -1788,19 +1788,19 @@
         <v>20970</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13656</v>
+        <v>13464</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31101</v>
+        <v>31807</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02434586993539036</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01585402083027088</v>
+        <v>0.01563141487504813</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03610738045015475</v>
+        <v>0.03692701292962056</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>85850</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68624</v>
+        <v>68851</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105316</v>
+        <v>103518</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1536279269398159</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1228019676296321</v>
+        <v>0.1232087964001051</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1884626749238985</v>
+        <v>0.1852446311074948</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1838,19 +1838,19 @@
         <v>32136</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22307</v>
+        <v>22882</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43398</v>
+        <v>45172</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1062264578214917</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07373901737876491</v>
+        <v>0.07563662317193351</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1434555983360903</v>
+        <v>0.1493193922967058</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>112</v>
@@ -1859,19 +1859,19 @@
         <v>117985</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99104</v>
+        <v>97840</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141070</v>
+        <v>138380</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1369795341731788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1150583767355687</v>
+        <v>0.1135915118969818</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.163780333216494</v>
+        <v>0.1606575755450617</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>431278</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>408765</v>
+        <v>412045</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>452192</v>
+        <v>451962</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7717709664291</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7314836774584498</v>
+        <v>0.737353009466242</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8091960905008433</v>
+        <v>0.8087853086529332</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>247</v>
@@ -1909,19 +1909,19 @@
         <v>261575</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248331</v>
+        <v>247583</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272063</v>
+        <v>272843</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.864657865807148</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8208787795663856</v>
+        <v>0.8184038202087298</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8993241590264122</v>
+        <v>0.9019027243606282</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>664</v>
@@ -1930,19 +1930,19 @@
         <v>692854</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>666036</v>
+        <v>669536</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>715320</v>
+        <v>715824</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8043947988225782</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7732594316073126</v>
+        <v>0.7773231087432468</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8304773652349655</v>
+        <v>0.8310628065374547</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>8110</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3199</v>
+        <v>3873</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15039</v>
+        <v>14510</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01874502028931441</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007394621292914929</v>
+        <v>0.008952970781883835</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0347616771885332</v>
+        <v>0.03353850211599343</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5672</v>
+        <v>4804</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005560006384750865</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03355821238766008</v>
+        <v>0.02842402513360501</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2076,19 +2076,19 @@
         <v>9050</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4052</v>
+        <v>4127</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15739</v>
+        <v>16290</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0150411106131941</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006734250110353784</v>
+        <v>0.006858865538225911</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02615928842923346</v>
+        <v>0.0270746614431734</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>8931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4026</v>
+        <v>4098</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18073</v>
+        <v>17404</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02064333056401177</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009305397460050741</v>
+        <v>0.009472626203468677</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04177416366062055</v>
+        <v>0.04022699366244895</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2126,19 +2126,19 @@
         <v>4074</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>974</v>
+        <v>999</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10336</v>
+        <v>9976</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02410237428797431</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005762390094206812</v>
+        <v>0.005908460475327558</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06115588826646444</v>
+        <v>0.05902241595630811</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -2147,19 +2147,19 @@
         <v>13005</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7295</v>
+        <v>7232</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21950</v>
+        <v>22515</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0216150387178328</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01212486570430847</v>
+        <v>0.0120207733990514</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03648291528096734</v>
+        <v>0.03742190675607415</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>18266</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11495</v>
+        <v>10719</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28845</v>
+        <v>28879</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04222077937684981</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02656915643754142</v>
+        <v>0.02477494106651289</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0666721446962019</v>
+        <v>0.06675043863307291</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5175</v>
+        <v>4178</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.00551360404857299</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03061644221068643</v>
+        <v>0.02472025399358945</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -2218,19 +2218,19 @@
         <v>19198</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11593</v>
+        <v>12303</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30083</v>
+        <v>30549</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03190906769678923</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01926839544197923</v>
+        <v>0.02044815810590576</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04999990039299237</v>
+        <v>0.05077399785483438</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>89483</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>72562</v>
+        <v>73336</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>106132</v>
+        <v>107976</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2068292509153882</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.167719260655279</v>
+        <v>0.1695079172934451</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2453124709563168</v>
+        <v>0.2495734352993033</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2268,19 +2268,19 @@
         <v>19433</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11596</v>
+        <v>12217</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29153</v>
+        <v>29292</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1149772112695682</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06860558050187583</v>
+        <v>0.07228198740437494</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1724848644397041</v>
+        <v>0.1733080763094438</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>105</v>
@@ -2289,19 +2289,19 @@
         <v>108916</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>91379</v>
+        <v>91075</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>130410</v>
+        <v>128726</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1810263461268096</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1518786409078711</v>
+        <v>0.1513728551915605</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.216751511149004</v>
+        <v>0.2139515033643587</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>307851</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>289753</v>
+        <v>288643</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>327866</v>
+        <v>326937</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7115616188544358</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6697294594392564</v>
+        <v>0.6671634476147827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7578230209522236</v>
+        <v>0.755674577621971</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -2339,19 +2339,19 @@
         <v>143639</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>132979</v>
+        <v>132980</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>151893</v>
+        <v>151813</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8498468040091336</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7867770372528897</v>
+        <v>0.7867852820395771</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8986842219891885</v>
+        <v>0.8982114594118464</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>420</v>
@@ -2360,19 +2360,19 @@
         <v>451489</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>428341</v>
+        <v>429311</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>472260</v>
+        <v>473492</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7504084368453743</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7119342040798929</v>
+        <v>0.7135458814645765</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7849315626195673</v>
+        <v>0.7869794381412192</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>4315</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1503</v>
+        <v>1490</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10424</v>
+        <v>11252</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02706677212023561</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00943055910633799</v>
+        <v>0.009347560857468913</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06538703138449402</v>
+        <v>0.07058030511077669</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4899</v>
+        <v>4894</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01545052368803335</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0775955369814726</v>
+        <v>0.07751746851334648</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -2506,19 +2506,19 @@
         <v>5291</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1881</v>
+        <v>1805</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12583</v>
+        <v>11529</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02377137200705944</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008451528526460013</v>
+        <v>0.008108332692751451</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05653917041854315</v>
+        <v>0.0518014654472051</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>2962</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7931</v>
+        <v>7976</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01858250468206887</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005522475546230062</v>
+        <v>0.005648478383109373</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04974675038245759</v>
+        <v>0.05002990339598266</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2569,19 +2569,19 @@
         <v>2962</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7499</v>
+        <v>8171</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01331085537207069</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0</v>
+        <v>0.004038423484188552</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03369402965639141</v>
+        <v>0.03671453690309218</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>4844</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1805</v>
+        <v>1914</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11348</v>
+        <v>10853</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03038542836668314</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01132403679641452</v>
+        <v>0.01200268310608815</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07118028910476347</v>
+        <v>0.06807443890620711</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7200</v>
+        <v>6143</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03181104712619632</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1140309447161675</v>
+        <v>0.09730084449872142</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -2640,19 +2640,19 @@
         <v>6853</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2809</v>
+        <v>3061</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12917</v>
+        <v>13272</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03078986050747846</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01262015487021819</v>
+        <v>0.01375178009986735</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0580397140780269</v>
+        <v>0.05963165995101399</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>34804</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25043</v>
+        <v>26299</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>46320</v>
+        <v>46156</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2183126109873816</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1570876410583134</v>
+        <v>0.1649613893855419</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2905493895474953</v>
+        <v>0.289516153185947</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2690,19 +2690,19 @@
         <v>3171</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8288</v>
+        <v>8942</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05021953618906182</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01254112429002175</v>
+        <v>0.01266850491416865</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1312709529714687</v>
+        <v>0.1416275583102349</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>39</v>
@@ -2711,19 +2711,19 @@
         <v>37975</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>27751</v>
+        <v>28408</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>50394</v>
+        <v>49657</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1706264805686387</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1246897509815363</v>
+        <v>0.1276430827751211</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.226428366049276</v>
+        <v>0.2231181629671262</v>
       </c>
     </row>
     <row r="32">
@@ -2740,19 +2740,19 @@
         <v>112497</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>100354</v>
+        <v>100063</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>122752</v>
+        <v>122616</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7056526838436308</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6294811236717528</v>
+        <v>0.6276602391814395</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7699739082062523</v>
+        <v>0.7691249081132979</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>55</v>
@@ -2761,19 +2761,19 @@
         <v>56983</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>50954</v>
+        <v>49714</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>60598</v>
+        <v>60877</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9025188929967085</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.807031829317425</v>
+        <v>0.7873903658867195</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9597766391933777</v>
+        <v>0.9641861169003095</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>169</v>
@@ -2782,19 +2782,19 @@
         <v>169481</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>155921</v>
+        <v>156024</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>180830</v>
+        <v>180270</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7615014315447527</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7005753914561308</v>
+        <v>0.7010384768882369</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8124975112607626</v>
+        <v>0.8099795727206172</v>
       </c>
     </row>
     <row r="33">
@@ -2886,19 +2886,19 @@
         <v>30789</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21711</v>
+        <v>21212</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>43753</v>
+        <v>42922</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01637640700650971</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01154792957441238</v>
+        <v>0.01128245344846478</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02327161446169776</v>
+        <v>0.02282975304079278</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -2907,19 +2907,19 @@
         <v>9600</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4865</v>
+        <v>4803</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>17457</v>
+        <v>17183</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.009467812692563323</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004798230518715039</v>
+        <v>0.004737004612665161</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01721770902200483</v>
+        <v>0.01694756899591686</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>40</v>
@@ -2928,19 +2928,19 @@
         <v>40389</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>29020</v>
+        <v>29609</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>55025</v>
+        <v>56721</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01395599024293792</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01002752920943755</v>
+        <v>0.01023094010477511</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01901317327849244</v>
+        <v>0.01959921871398768</v>
       </c>
     </row>
     <row r="35">
@@ -2957,19 +2957,19 @@
         <v>34819</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23145</v>
+        <v>24272</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>48125</v>
+        <v>47736</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01851944376908115</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01231036069662566</v>
+        <v>0.01290973284598821</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02559709315970671</v>
+        <v>0.02538988057756025</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>15</v>
@@ -2978,19 +2978,19 @@
         <v>16457</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9344</v>
+        <v>9422</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>26989</v>
+        <v>27447</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01623080929749116</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.009215384115897859</v>
+        <v>0.009292809888921028</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02661818414845605</v>
+        <v>0.02707019087465811</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>47</v>
@@ -2999,19 +2999,19 @@
         <v>51275</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>38334</v>
+        <v>37910</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>67705</v>
+        <v>67321</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01771762374767069</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01324581191088382</v>
+        <v>0.01309938553663701</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02339483090945317</v>
+        <v>0.02326198983092249</v>
       </c>
     </row>
     <row r="36">
@@ -3028,19 +3028,19 @@
         <v>50451</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>36783</v>
+        <v>38877</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>66993</v>
+        <v>65538</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02683437402216548</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01956427286287509</v>
+        <v>0.02067807162238722</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03563271685386514</v>
+        <v>0.03485880238657008</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -3049,19 +3049,19 @@
         <v>9838</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4958</v>
+        <v>5016</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16981</v>
+        <v>17882</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.009702583729965445</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.004889966628170555</v>
+        <v>0.004947479865437619</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01674752125564451</v>
+        <v>0.01763641830198102</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>60</v>
@@ -3070,19 +3070,19 @@
         <v>60289</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>45830</v>
+        <v>46605</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>75253</v>
+        <v>77243</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0208322742419642</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0158361393453177</v>
+        <v>0.01610377307481772</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02600273737222028</v>
+        <v>0.02669059936779434</v>
       </c>
     </row>
     <row r="37">
@@ -3099,19 +3099,19 @@
         <v>281094</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>251352</v>
+        <v>252723</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>312374</v>
+        <v>314320</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.149509512499909</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1336903191515455</v>
+        <v>0.134419777997574</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1661472021656188</v>
+        <v>0.1671822638213012</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>74</v>
@@ -3120,19 +3120,19 @@
         <v>78795</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>64275</v>
+        <v>62281</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>98363</v>
+        <v>97188</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07771355186531467</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06339323637302649</v>
+        <v>0.06142634095962098</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09701301656991447</v>
+        <v>0.09585392817558001</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>348</v>
@@ -3141,19 +3141,19 @@
         <v>359889</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>325681</v>
+        <v>324022</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>394779</v>
+        <v>396690</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1243558938649415</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1125357365839847</v>
+        <v>0.1119625188204826</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1364117991760681</v>
+        <v>0.1370720631139309</v>
       </c>
     </row>
     <row r="38">
@@ -3170,19 +3170,19 @@
         <v>1482953</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1449074</v>
+        <v>1444132</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1521074</v>
+        <v>1516272</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7887602627023347</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7707407698356409</v>
+        <v>0.7681118887805821</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8090361203796137</v>
+        <v>0.8064821558984938</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>860</v>
@@ -3191,19 +3191,19 @@
         <v>899228</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>877753</v>
+        <v>878369</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>917978</v>
+        <v>918846</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8868852424146654</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8657046286079376</v>
+        <v>0.8663123496556104</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.905377648148511</v>
+        <v>0.9062335305762321</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2273</v>
@@ -3212,19 +3212,19 @@
         <v>2382181</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2340833</v>
+        <v>2341418</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2421855</v>
+        <v>2421527</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8231382179024858</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.808850888407487</v>
+        <v>0.8090530787774985</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8368471361055791</v>
+        <v>0.8367338818772905</v>
       </c>
     </row>
     <row r="39">
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4415</v>
+        <v>4101</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01164030191588251</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05328394923381359</v>
+        <v>0.04949363168423168</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4878</v>
+        <v>4883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005651332874701731</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0285859769852606</v>
+        <v>0.0286115445921005</v>
       </c>
     </row>
     <row r="5">
@@ -3714,19 +3714,19 @@
         <v>8714</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3889</v>
+        <v>3974</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17071</v>
+        <v>16706</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1051821261386159</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0469407064198008</v>
+        <v>0.0479679402681058</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2060410993763977</v>
+        <v>0.2016371802691565</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11298</v>
+        <v>10340</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03588200696098292</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1286780617593032</v>
+        <v>0.1177619864033084</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -3756,19 +3756,19 @@
         <v>11865</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5785</v>
+        <v>5996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20924</v>
+        <v>21233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06952701415748337</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03389994898788439</v>
+        <v>0.03513391336940928</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1226140877950973</v>
+        <v>0.1244234511276765</v>
       </c>
     </row>
     <row r="8">
@@ -3785,19 +3785,19 @@
         <v>73172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>64671</v>
+        <v>64891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77922</v>
+        <v>77987</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8831775719455016</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7805715576351254</v>
+        <v>0.7832214474817658</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9405124899891559</v>
+        <v>0.9412930839500545</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -3806,7 +3806,7 @@
         <v>84651</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76503</v>
+        <v>77461</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>87801</v>
@@ -3815,7 +3815,7 @@
         <v>0.9641179930390171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8713219382406973</v>
+        <v>0.8822380135966912</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3827,19 +3827,19 @@
         <v>157823</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>149678</v>
+        <v>148375</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>164536</v>
+        <v>163900</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9248216529678149</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8770932441761597</v>
+        <v>0.8694621201478839</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.964162685417455</v>
+        <v>0.9604332088387387</v>
       </c>
     </row>
     <row r="9">
@@ -3931,19 +3931,19 @@
         <v>6587</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2022</v>
+        <v>2775</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13776</v>
+        <v>14256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01721095071757524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00528289367008219</v>
+        <v>0.007251568953527821</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03599262104700347</v>
+        <v>0.03724700885363039</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3952,19 +3952,19 @@
         <v>2976</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8102</v>
+        <v>7563</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01077465497152097</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003478081174686468</v>
+        <v>0.003512587403843838</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02933330868187997</v>
+        <v>0.02738284121557042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3973,19 +3973,19 @@
         <v>9563</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4084</v>
+        <v>4784</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17849</v>
+        <v>18272</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01451314344908809</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00619790339474747</v>
+        <v>0.007259823322132282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02708837938390009</v>
+        <v>0.02773031379158018</v>
       </c>
     </row>
     <row r="11">
@@ -4002,19 +4002,19 @@
         <v>5215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1864</v>
+        <v>1832</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12032</v>
+        <v>12493</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01362538693554741</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004871109084497588</v>
+        <v>0.004786169332951655</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03143734073116621</v>
+        <v>0.03264150257891478</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -4023,19 +4023,19 @@
         <v>4005</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9678</v>
+        <v>9155</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01450174295355628</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003668097372159496</v>
+        <v>0.003587218587583818</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0350414563468214</v>
+        <v>0.03314530656058982</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -4044,19 +4044,19 @@
         <v>9220</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4807</v>
+        <v>4333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16939</v>
+        <v>16405</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01399271617715601</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00729475145833833</v>
+        <v>0.006575661525126101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02570718727858935</v>
+        <v>0.02489580231826099</v>
       </c>
     </row>
     <row r="12">
@@ -4073,19 +4073,19 @@
         <v>7819</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3831</v>
+        <v>3818</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15751</v>
+        <v>14892</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02042981242000391</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01000981672259062</v>
+        <v>0.009974277345607442</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04115407551352996</v>
+        <v>0.03890809101625915</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -4094,19 +4094,19 @@
         <v>3731</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11149</v>
+        <v>11046</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01350705373869378</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003409982420971047</v>
+        <v>0.003395951965522093</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04036817095911539</v>
+        <v>0.03999314924032717</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -4115,19 +4115,19 @@
         <v>11550</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5817</v>
+        <v>5935</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20921</v>
+        <v>21423</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01752810164950826</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008827673538109836</v>
+        <v>0.009006352543073842</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03175059786736142</v>
+        <v>0.03251099815796923</v>
       </c>
     </row>
     <row r="13">
@@ -4144,19 +4144,19 @@
         <v>55893</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42663</v>
+        <v>43225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70851</v>
+        <v>70714</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1460337206350315</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1114682920303362</v>
+        <v>0.1129369272122775</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.185117199773029</v>
+        <v>0.1847592581352374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -4165,19 +4165,19 @@
         <v>26161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17536</v>
+        <v>17883</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37775</v>
+        <v>39049</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09471950001303332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06349038700821906</v>
+        <v>0.06474658483921142</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1367681382438492</v>
+        <v>0.141382311128695</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -4186,19 +4186,19 @@
         <v>82053</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66241</v>
+        <v>67386</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99013</v>
+        <v>100718</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1245250947370299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1005285404773641</v>
+        <v>0.1022649289278018</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1502637844390488</v>
+        <v>0.1528502018557431</v>
       </c>
     </row>
     <row r="14">
@@ -4215,19 +4215,19 @@
         <v>307223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>290226</v>
+        <v>291599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>322917</v>
+        <v>322725</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.802700129291842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7582910902563128</v>
+        <v>0.7618790414801963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8437040026963553</v>
+        <v>0.8432037209688042</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>223</v>
@@ -4236,19 +4236,19 @@
         <v>239321</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>226848</v>
+        <v>225731</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>249659</v>
+        <v>249646</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8664970483231956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8213374797894799</v>
+        <v>0.8172922720413485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9039269682793737</v>
+        <v>0.903878986226523</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>514</v>
@@ -4257,19 +4257,19 @@
         <v>546544</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>527391</v>
+        <v>525287</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>563956</v>
+        <v>564635</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8294409439872177</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8003729197464502</v>
+        <v>0.7971808206174583</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8558651876798197</v>
+        <v>0.8568956619361249</v>
       </c>
     </row>
     <row r="15">
@@ -4361,19 +4361,19 @@
         <v>5801</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1981</v>
+        <v>1896</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14775</v>
+        <v>12555</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01367350762750657</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004670023674410185</v>
+        <v>0.004470107656724288</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03482680840011068</v>
+        <v>0.02959552809360043</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7618</v>
+        <v>6886</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006785537705693298</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02674373951357793</v>
+        <v>0.02417433128675724</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -4403,19 +4403,19 @@
         <v>7734</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3749</v>
+        <v>2892</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15870</v>
+        <v>16814</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01090656992734693</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005286713156901638</v>
+        <v>0.00407923497425467</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02238105522866298</v>
+        <v>0.02371230595026656</v>
       </c>
     </row>
     <row r="17">
@@ -4432,19 +4432,19 @@
         <v>10572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4795</v>
+        <v>4722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20984</v>
+        <v>19725</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02491970815542755</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01130237479515878</v>
+        <v>0.01113053151852728</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04946259131528622</v>
+        <v>0.04649540913460955</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4698</v>
+        <v>4854</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003451374923858724</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01649234161670487</v>
+        <v>0.01704067450046954</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -4474,19 +4474,19 @@
         <v>11555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5606</v>
+        <v>5858</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21117</v>
+        <v>22775</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01629575345581408</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007906080254708566</v>
+        <v>0.008260791985223623</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02978152475858525</v>
+        <v>0.03211942034633387</v>
       </c>
     </row>
     <row r="18">
@@ -4503,19 +4503,19 @@
         <v>16410</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9726</v>
+        <v>9812</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25321</v>
+        <v>26631</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03868142133143394</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02292657269253805</v>
+        <v>0.02312773932586134</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05968646749841579</v>
+        <v>0.06277349119124735</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -4524,19 +4524,19 @@
         <v>4965</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1928</v>
+        <v>1953</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11055</v>
+        <v>11002</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01743146576333201</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.006768495666863511</v>
+        <v>0.006855416417441682</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03881195548301957</v>
+        <v>0.03862537435570701</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -4545,19 +4545,19 @@
         <v>21375</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13003</v>
+        <v>12692</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>32188</v>
+        <v>32096</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03014519021319177</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0183385866793576</v>
+        <v>0.01789962695422203</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04539367598679852</v>
+        <v>0.04526429444395341</v>
       </c>
     </row>
     <row r="19">
@@ -4574,19 +4574,19 @@
         <v>79258</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63690</v>
+        <v>63823</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97782</v>
+        <v>97628</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1868251334641783</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.150129715435275</v>
+        <v>0.1504418097889366</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2304904274587538</v>
+        <v>0.2301266411126764</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -4595,19 +4595,19 @@
         <v>26549</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17797</v>
+        <v>17021</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37617</v>
+        <v>37284</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09320796393917356</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06247964412469383</v>
+        <v>0.05975467216002268</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1320625007342735</v>
+        <v>0.1308927915889872</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>102</v>
@@ -4616,19 +4616,19 @@
         <v>105807</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>86563</v>
+        <v>87090</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>125861</v>
+        <v>124819</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1492185703285511</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1220792816748106</v>
+        <v>0.1228219186616976</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1775007409649218</v>
+        <v>0.1760302275616124</v>
       </c>
     </row>
     <row r="20">
@@ -4645,19 +4645,19 @@
         <v>312195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>292070</v>
+        <v>293322</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>330603</v>
+        <v>331332</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7359002294214536</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.688463186323262</v>
+        <v>0.6914140599505537</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7792927600019194</v>
+        <v>0.7810097851636145</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>239</v>
@@ -4666,19 +4666,19 @@
         <v>250410</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>237634</v>
+        <v>239166</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260105</v>
+        <v>260519</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8791236576679424</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8342721571765684</v>
+        <v>0.8396492208488716</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9131634512979075</v>
+        <v>0.9146147870469944</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>541</v>
@@ -4687,19 +4687,19 @@
         <v>562604</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>539811</v>
+        <v>539281</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>583795</v>
+        <v>583895</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7934339160750961</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7612892388689225</v>
+        <v>0.7605417459792025</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8233197520991297</v>
+        <v>0.8234607703167636</v>
       </c>
     </row>
     <row r="21">
@@ -4791,19 +4791,19 @@
         <v>9348</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3183</v>
+        <v>3249</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19848</v>
+        <v>19106</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02549791313623506</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008682128982860728</v>
+        <v>0.008862138993600378</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05413933951945991</v>
+        <v>0.05211596210844455</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -4825,19 +4825,19 @@
         <v>9348</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3300</v>
+        <v>3222</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19946</v>
+        <v>20050</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01573580247877545</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005555723627200818</v>
+        <v>0.005423276599134671</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03357660278664152</v>
+        <v>0.03375183103285988</v>
       </c>
     </row>
     <row r="23">
@@ -4854,19 +4854,19 @@
         <v>7263</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3087</v>
+        <v>3067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14631</v>
+        <v>14924</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01981205913504595</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008420703970299261</v>
+        <v>0.008364704062783791</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03990905092733243</v>
+        <v>0.04070878116640561</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8410</v>
+        <v>7474</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009339700170296027</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0369801347523463</v>
+        <v>0.03286377094047815</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -4896,19 +4896,19 @@
         <v>9387</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4999</v>
+        <v>5041</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17538</v>
+        <v>17039</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01580262014636081</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008415505888662416</v>
+        <v>0.008485978351822377</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.029522578010899</v>
+        <v>0.02868423237471741</v>
       </c>
     </row>
     <row r="24">
@@ -4925,19 +4925,19 @@
         <v>10676</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5232</v>
+        <v>5104</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19390</v>
+        <v>19150</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02912218289164794</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01427137290867766</v>
+        <v>0.01392126140743539</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05289169980615441</v>
+        <v>0.0522364310010655</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5399</v>
+        <v>5465</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004738360750347254</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02373697168925927</v>
+        <v>0.02403066143470929</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -4967,19 +4967,19 @@
         <v>11754</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5537</v>
+        <v>6199</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22210</v>
+        <v>21803</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01978661222265401</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009321146822394018</v>
+        <v>0.0104348362156412</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03738902576088967</v>
+        <v>0.036702262374172</v>
       </c>
     </row>
     <row r="25">
@@ -4996,19 +4996,19 @@
         <v>79026</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63397</v>
+        <v>63393</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97983</v>
+        <v>96218</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2155621035326177</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1729302606903544</v>
+        <v>0.1729191006275685</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.267271921248572</v>
+        <v>0.2624573073377427</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -5017,19 +5017,19 @@
         <v>26798</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17177</v>
+        <v>16638</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39879</v>
+        <v>38870</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1178276213036312</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07552582993509682</v>
+        <v>0.07315699330945821</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1753447418187681</v>
+        <v>0.170906846825319</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -5038,19 +5038,19 @@
         <v>105824</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>85853</v>
+        <v>87557</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>128944</v>
+        <v>129779</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1781435577296271</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1445241093296222</v>
+        <v>0.1473925877085177</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2170635371754182</v>
+        <v>0.2184700943165775</v>
       </c>
     </row>
     <row r="26">
@@ -5067,19 +5067,19 @@
         <v>260291</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>238168</v>
+        <v>241556</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>277047</v>
+        <v>278031</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7100057413044534</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6496614421045811</v>
+        <v>0.6589012204055497</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7557121295588991</v>
+        <v>0.7583958779243326</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>172</v>
@@ -5088,19 +5088,19 @@
         <v>197432</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>184226</v>
+        <v>185212</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>207734</v>
+        <v>208003</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8680943177757255</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8100258028762846</v>
+        <v>0.814362132838743</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9133881252820459</v>
+        <v>0.9145733084985109</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>405</v>
@@ -5109,19 +5109,19 @@
         <v>457724</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>433669</v>
+        <v>436194</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>479599</v>
+        <v>479412</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7705314074225825</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7300369790257433</v>
+        <v>0.7342873687453452</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.80735470565628</v>
+        <v>0.807041080354501</v>
       </c>
     </row>
     <row r="27">
@@ -5213,19 +5213,19 @@
         <v>7271</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2904</v>
+        <v>2481</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15404</v>
+        <v>14758</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04650901823014429</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0185777417607967</v>
+        <v>0.01586999415390557</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09853149466607211</v>
+        <v>0.09439711486645307</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -5247,19 +5247,19 @@
         <v>7271</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3006</v>
+        <v>2975</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16862</v>
+        <v>16598</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03231554576305213</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01336138620723886</v>
+        <v>0.01322046809095415</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07494176310857292</v>
+        <v>0.07376576297549764</v>
       </c>
     </row>
     <row r="29">
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4663</v>
+        <v>6298</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006744102105429564</v>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02982756193287713</v>
+        <v>0.04028280747896024</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9599</v>
+        <v>9558</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04370388267743531</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.139792732376656</v>
+        <v>0.1391982410175872</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -5318,19 +5318,19 @@
         <v>4055</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1048</v>
+        <v>1061</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10902</v>
+        <v>12580</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01802336896379824</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004658257566090299</v>
+        <v>0.004715958676869073</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04845025346259785</v>
+        <v>0.05590873971932193</v>
       </c>
     </row>
     <row r="30">
@@ -5347,19 +5347,19 @@
         <v>4050</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1140</v>
+        <v>1058</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10864</v>
+        <v>9248</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02590769951867855</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007289477888827312</v>
+        <v>0.006770423757447293</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06948725555889347</v>
+        <v>0.0591507889251967</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5224</v>
+        <v>5829</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01526680188190919</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07607474786379702</v>
+        <v>0.08489324695322821</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -5389,19 +5389,19 @@
         <v>5099</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1858</v>
+        <v>1789</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11398</v>
+        <v>11474</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02266034463182044</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.008256157727294188</v>
+        <v>0.0079508268082366</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05065567691613284</v>
+        <v>0.05099663612000235</v>
       </c>
     </row>
     <row r="31">
@@ -5418,19 +5418,19 @@
         <v>38365</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>27997</v>
+        <v>28628</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>49907</v>
+        <v>50135</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2453959842081558</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1790757102591355</v>
+        <v>0.1831157035428274</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3192199131631481</v>
+        <v>0.3206794175563172</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -5439,19 +5439,19 @@
         <v>6283</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2105</v>
+        <v>2946</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12523</v>
+        <v>12330</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09150765979096247</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03065676633212969</v>
+        <v>0.04290754887594555</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1823733003055963</v>
+        <v>0.1795700746198814</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -5460,19 +5460,19 @@
         <v>44648</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32929</v>
+        <v>33221</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>56940</v>
+        <v>58157</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1984328407417837</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1463488916767167</v>
+        <v>0.1476452084490497</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2530602041050923</v>
+        <v>0.2584698345108181</v>
       </c>
     </row>
     <row r="32">
@@ -5489,19 +5489,19 @@
         <v>105598</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>92765</v>
+        <v>92860</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>116538</v>
+        <v>117003</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6754431959375918</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5933604593327356</v>
+        <v>0.5939661578014717</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7454206893002383</v>
+        <v>0.748392454119001</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>53</v>
@@ -5510,19 +5510,19 @@
         <v>58333</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>50380</v>
+        <v>50433</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63637</v>
+        <v>63285</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8495216556496931</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7336920535041673</v>
+        <v>0.7344747299948894</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9267583643648796</v>
+        <v>0.9216406397701111</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>152</v>
@@ -5531,19 +5531,19 @@
         <v>163931</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>150411</v>
+        <v>149373</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>177948</v>
+        <v>177486</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7285678998995455</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6684787022403343</v>
+        <v>0.6638633316235255</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7908634021796297</v>
+        <v>0.7888090902722911</v>
       </c>
     </row>
     <row r="33">
@@ -5635,19 +5635,19 @@
         <v>29971</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>19761</v>
+        <v>19579</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>45634</v>
+        <v>46185</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02121459421496735</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01398774587592858</v>
+        <v>0.01385849911703015</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03230147756783162</v>
+        <v>0.03269089091030579</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -5656,19 +5656,19 @@
         <v>4909</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1909</v>
+        <v>1945</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10691</v>
+        <v>10798</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005194745840775616</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002019922378926084</v>
+        <v>0.002058639805719119</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01131376268115066</v>
+        <v>0.0114273076172265</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>29</v>
@@ -5677,19 +5677,19 @@
         <v>34880</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>23524</v>
+        <v>22526</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>51172</v>
+        <v>50111</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01479405925563122</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009977633715483915</v>
+        <v>0.009554409019428197</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.021704072353093</v>
+        <v>0.02125402268126417</v>
       </c>
     </row>
     <row r="35">
@@ -5706,19 +5706,19 @@
         <v>24104</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>15626</v>
+        <v>14704</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37054</v>
+        <v>35738</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0170617854813142</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01106079265611081</v>
+        <v>0.01040829655112671</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02622780006148755</v>
+        <v>0.02529618684204147</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -5727,19 +5727,19 @@
         <v>10114</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5011</v>
+        <v>5126</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19211</v>
+        <v>20731</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01070289108021998</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005303393608195574</v>
+        <v>0.005424335323607539</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02033017581301017</v>
+        <v>0.02193962953767884</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -5748,19 +5748,19 @@
         <v>34218</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>23586</v>
+        <v>23436</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>48098</v>
+        <v>47955</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01451322803861543</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01000379216830009</v>
+        <v>0.009940052544210098</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02040029245617605</v>
+        <v>0.02033983204271382</v>
       </c>
     </row>
     <row r="36">
@@ -5777,19 +5777,19 @@
         <v>38956</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>28428</v>
+        <v>27300</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>54258</v>
+        <v>52244</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02757424958798805</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02012212453389699</v>
+        <v>0.01932367259571375</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03840533962229659</v>
+        <v>0.03697989224444408</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -5798,19 +5798,19 @@
         <v>10822</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4983</v>
+        <v>5070</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>19549</v>
+        <v>18196</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01145235671806592</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.005273226433787051</v>
+        <v>0.005365358705618314</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02068846727648456</v>
+        <v>0.0192564237330672</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>47</v>
@@ -5819,19 +5819,19 @@
         <v>49778</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>36574</v>
+        <v>37750</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>66074</v>
+        <v>66628</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02111281659785031</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01551239557231359</v>
+        <v>0.01601138093739653</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02802457129661157</v>
+        <v>0.02825981699078377</v>
       </c>
     </row>
     <row r="37">
@@ -5848,19 +5848,19 @@
         <v>261256</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>230462</v>
+        <v>233509</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>291518</v>
+        <v>293229</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1849248983513401</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1631281494167618</v>
+        <v>0.165285184467442</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2063458213077358</v>
+        <v>0.2075569928325068</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>77</v>
@@ -5869,19 +5869,19 @@
         <v>88942</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>71246</v>
+        <v>71404</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>108803</v>
+        <v>108550</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09412524121062685</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07539762533792148</v>
+        <v>0.07556510184735737</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1151432573836032</v>
+        <v>0.1148756384564177</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>326</v>
@@ -5890,19 +5890,19 @@
         <v>350198</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>315103</v>
+        <v>316322</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>385788</v>
+        <v>384660</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1485336442426633</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1336484648557251</v>
+        <v>0.1341655609544389</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1636288211089927</v>
+        <v>0.1631506236902353</v>
       </c>
     </row>
     <row r="38">
@@ -5919,19 +5919,19 @@
         <v>1058479</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1025526</v>
+        <v>1022084</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1093062</v>
+        <v>1089454</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7492244723643904</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.725899720930923</v>
+        <v>0.7234631373548904</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7737034443212938</v>
+        <v>0.7711493848614828</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>771</v>
@@ -5940,19 +5940,19 @@
         <v>830147</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>808124</v>
+        <v>806280</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>849274</v>
+        <v>850143</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8785247651503116</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8552179090582038</v>
+        <v>0.853267292084619</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8987659827186174</v>
+        <v>0.8996859772676813</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1765</v>
@@ -5961,19 +5961,19 @@
         <v>1888626</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1846937</v>
+        <v>1848750</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1927207</v>
+        <v>1926507</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8010462518652397</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7833642116809889</v>
+        <v>0.7841332218875766</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8174101359907567</v>
+        <v>0.8171131561681694</v>
       </c>
     </row>
     <row r="39">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4778</v>
+        <v>5109</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009827791090470286</v>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05202197896146806</v>
+        <v>0.05561552059371568</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4565</v>
+        <v>5363</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005280233864185906</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02670438972778748</v>
+        <v>0.03136927106497289</v>
       </c>
     </row>
     <row r="5">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7075</v>
+        <v>6903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01772991067942393</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08943214311517703</v>
+        <v>0.08726433941817784</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6977</v>
+        <v>7185</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008204059558182229</v>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04081132921598223</v>
+        <v>0.04202833958389675</v>
       </c>
     </row>
     <row r="6">
@@ -6445,19 +6445,19 @@
         <v>2803</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7608</v>
+        <v>7461</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03051882188371381</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009824128611521266</v>
+        <v>0.00990127253190113</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08282543944421425</v>
+        <v>0.08122747860279926</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -6466,19 +6466,19 @@
         <v>2803</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6676</v>
+        <v>7475</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01639702302602896</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005286887760789168</v>
+        <v>0.005265220322836834</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03904665459840545</v>
+        <v>0.04372235819074782</v>
       </c>
     </row>
     <row r="7">
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6871</v>
+        <v>6744</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02546895782326352</v>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08685283495991032</v>
+        <v>0.08524390904182473</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4717</v>
+        <v>4414</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009059371842898843</v>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0513518341975156</v>
+        <v>0.04805101798780135</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -6537,19 +6537,19 @@
         <v>2847</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7517</v>
+        <v>7867</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01665248514968275</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0</v>
+        <v>0.004860253860501506</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.043969075677334</v>
+        <v>0.04601680933182442</v>
       </c>
     </row>
     <row r="8">
@@ -6566,19 +6566,19 @@
         <v>75692</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69862</v>
+        <v>70319</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>78142</v>
+        <v>78156</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9568011314973125</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8831165177012642</v>
+        <v>0.8888898114142623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9877747128081013</v>
+        <v>0.9879524623728534</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>88</v>
@@ -6587,19 +6587,19 @@
         <v>87317</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>81852</v>
+        <v>81921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90091</v>
+        <v>90110</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9505940151829171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8911047084965829</v>
+        <v>0.8918526377884773</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9808008674021894</v>
+        <v>0.9809998442890916</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>159</v>
@@ -6608,19 +6608,19 @@
         <v>163008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>156489</v>
+        <v>156325</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>167332</v>
+        <v>167297</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9534661984019202</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9153330223707572</v>
+        <v>0.9143757277985165</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9787569886835993</v>
+        <v>0.9785510432307724</v>
       </c>
     </row>
     <row r="9">
@@ -6712,19 +6712,19 @@
         <v>2922</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7987</v>
+        <v>7801</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008546709953438245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002724070427127023</v>
+        <v>0.002721795573539162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02336547562619382</v>
+        <v>0.02282138818757043</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -6733,19 +6733,19 @@
         <v>2852</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7738</v>
+        <v>8547</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0104204229581523</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003359997502623865</v>
+        <v>0.003401166985746465</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02826911489912708</v>
+        <v>0.0312253975470919</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -6754,19 +6754,19 @@
         <v>5774</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2837</v>
+        <v>1958</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12877</v>
+        <v>12349</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009379880132540392</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004609400973285291</v>
+        <v>0.003180544902493392</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02091992372465861</v>
+        <v>0.02006195643619649</v>
       </c>
     </row>
     <row r="11">
@@ -6783,19 +6783,19 @@
         <v>2885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7815</v>
+        <v>7670</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008440725198410248</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002682048978526211</v>
+        <v>0.002674384921623885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02286128326115269</v>
+        <v>0.02243855044141629</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4765</v>
+        <v>5697</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003484017810389765</v>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01740784111058223</v>
+        <v>0.02081175834499523</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -6825,19 +6825,19 @@
         <v>3839</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8922</v>
+        <v>9820</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006236662584848896</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001680203405401658</v>
+        <v>0.001661096348183347</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01449368957128451</v>
+        <v>0.01595320995453014</v>
       </c>
     </row>
     <row r="12">
@@ -6854,19 +6854,19 @@
         <v>5911</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2795</v>
+        <v>2084</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12502</v>
+        <v>12168</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01729070301286097</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008176745618272389</v>
+        <v>0.006096230455894425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03657144764001434</v>
+        <v>0.03559394517621173</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6875,19 +6875,19 @@
         <v>2694</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7153</v>
+        <v>7314</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.009841839217158447</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002980832689890115</v>
+        <v>0.002960917891678223</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02613188475958304</v>
+        <v>0.02671933257153467</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -6896,19 +6896,19 @@
         <v>8605</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3875</v>
+        <v>4686</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15509</v>
+        <v>16461</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01397847154136084</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006295518645446205</v>
+        <v>0.007612852024395193</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02519561672752527</v>
+        <v>0.02674123463129137</v>
       </c>
     </row>
     <row r="13">
@@ -6925,19 +6925,19 @@
         <v>34245</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23974</v>
+        <v>24584</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46745</v>
+        <v>47148</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1001768388387672</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07013194292053657</v>
+        <v>0.07191671377312961</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1367444319243765</v>
+        <v>0.1379231656991993</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -6946,19 +6946,19 @@
         <v>15115</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8749</v>
+        <v>8697</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23411</v>
+        <v>23834</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05522068311254366</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03196328394045998</v>
+        <v>0.0317733834968644</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08552974286589644</v>
+        <v>0.08707713385954502</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -6967,19 +6967,19 @@
         <v>49360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38223</v>
+        <v>37107</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64797</v>
+        <v>63902</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08018651576157973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06209429850331146</v>
+        <v>0.06028161306216093</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1052658108143064</v>
+        <v>0.1038116042240267</v>
       </c>
     </row>
     <row r="14">
@@ -6996,19 +6996,19 @@
         <v>295881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282518</v>
+        <v>281844</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307563</v>
+        <v>307236</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8655450229965234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8264564314925175</v>
+        <v>0.8244834529944799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8997195622358237</v>
+        <v>0.8987645388267418</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>261</v>
@@ -7017,19 +7017,19 @@
         <v>252101</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>243085</v>
+        <v>242486</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>259698</v>
+        <v>259897</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9210330369017559</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8880934371202972</v>
+        <v>0.8859023634803666</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9487879772162435</v>
+        <v>0.9495130536640773</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>543</v>
@@ -7038,19 +7038,19 @@
         <v>547982</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>530756</v>
+        <v>530311</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>561713</v>
+        <v>562359</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8902184699796701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8622338772362312</v>
+        <v>0.8615114633081191</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9125246997574252</v>
+        <v>0.9135752698046297</v>
       </c>
     </row>
     <row r="15">
@@ -7142,19 +7142,19 @@
         <v>5260</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13960</v>
+        <v>11644</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01157393482352935</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003386570303075568</v>
+        <v>0.003374466049962747</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03071905562846216</v>
+        <v>0.02562232030610992</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -7163,19 +7163,19 @@
         <v>3485</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10824</v>
+        <v>9813</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01101253679004862</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002864534075531613</v>
+        <v>0.002820044151358776</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03420812166537043</v>
+        <v>0.0310115436756021</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -7184,19 +7184,19 @@
         <v>8744</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4065</v>
+        <v>4082</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18209</v>
+        <v>17253</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0113434911390908</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005272749521894689</v>
+        <v>0.00529535448742527</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02362194322277349</v>
+        <v>0.02238137122423043</v>
       </c>
     </row>
     <row r="17">
@@ -7213,19 +7213,19 @@
         <v>4694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12344</v>
+        <v>13649</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0103292824788386</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003937684802873267</v>
+        <v>0.003934202609298209</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.027162218070678</v>
+        <v>0.03003369110518748</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -7234,19 +7234,19 @@
         <v>3661</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9182</v>
+        <v>9212</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01156979945730963</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002954269095534009</v>
+        <v>0.002886771779740817</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0290183992320236</v>
+        <v>0.02911255012552043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -7255,19 +7255,19 @@
         <v>8355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4562</v>
+        <v>3758</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16589</v>
+        <v>16343</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01083849214128616</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005918133294358594</v>
+        <v>0.004875634870384444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02152008214528749</v>
+        <v>0.02120131195690842</v>
       </c>
     </row>
     <row r="18">
@@ -7284,19 +7284,19 @@
         <v>14463</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7925</v>
+        <v>8010</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23971</v>
+        <v>23847</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03182661418531144</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01743956010907457</v>
+        <v>0.01762572046112306</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05274897960913336</v>
+        <v>0.05247436329949186</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -7305,19 +7305,19 @@
         <v>5265</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1843</v>
+        <v>1817</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12460</v>
+        <v>11502</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01663948749591825</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00582406223851066</v>
+        <v>0.00574373648666692</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03937638757919689</v>
+        <v>0.0363492233913473</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -7326,19 +7326,19 @@
         <v>19729</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11618</v>
+        <v>11923</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31516</v>
+        <v>30664</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02559257483779211</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01507069422054973</v>
+        <v>0.01546642826439495</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04088361734112988</v>
+        <v>0.03977791734246965</v>
       </c>
     </row>
     <row r="19">
@@ -7355,19 +7355,19 @@
         <v>53115</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41092</v>
+        <v>40736</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68717</v>
+        <v>69256</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1168794030375421</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0904234038626026</v>
+        <v>0.08964031563583945</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1512123573891417</v>
+        <v>0.1523977832250204</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -7376,19 +7376,19 @@
         <v>28569</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19254</v>
+        <v>19276</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40253</v>
+        <v>40989</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09028446723037425</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06084892439401479</v>
+        <v>0.0609174026943417</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1272103904633185</v>
+        <v>0.1295376473009426</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -7397,19 +7397,19 @@
         <v>81684</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66019</v>
+        <v>66656</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100574</v>
+        <v>100910</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.105962665483596</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08564193147398405</v>
+        <v>0.08646810768044559</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1304683539772835</v>
+        <v>0.1309031510787188</v>
       </c>
     </row>
     <row r="20">
@@ -7426,19 +7426,19 @@
         <v>376911</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>359909</v>
+        <v>359206</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>392026</v>
+        <v>392657</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8293907654747785</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7919785255292014</v>
+        <v>0.7904321826645718</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8626522673353175</v>
+        <v>0.8640397495141185</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>279</v>
@@ -7447,19 +7447,19 @@
         <v>275449</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262689</v>
+        <v>262775</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>287201</v>
+        <v>286229</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8704937090263493</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8301657369798677</v>
+        <v>0.830439325464816</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9076315502544521</v>
+        <v>0.9045608145498826</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>640</v>
@@ -7468,19 +7468,19 @@
         <v>652360</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>630799</v>
+        <v>631260</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>671340</v>
+        <v>671017</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8462627763982349</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8182927879746544</v>
+        <v>0.8188911109929475</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8708833248788189</v>
+        <v>0.8704646456617412</v>
       </c>
     </row>
     <row r="21">
@@ -7572,19 +7572,19 @@
         <v>8949</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4181</v>
+        <v>3806</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17037</v>
+        <v>17300</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02461788747246699</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01150023781834704</v>
+        <v>0.01047002639805805</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04686627607189117</v>
+        <v>0.04759034870229055</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -7606,19 +7606,19 @@
         <v>8949</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3929</v>
+        <v>3298</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18060</v>
+        <v>16673</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01480131072729853</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006498881394374572</v>
+        <v>0.00545394088735527</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02987063876456317</v>
+        <v>0.02757598661739158</v>
       </c>
     </row>
     <row r="23">
@@ -7635,19 +7635,19 @@
         <v>9912</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4833</v>
+        <v>4686</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19638</v>
+        <v>19114</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02726752977396944</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01329369461017958</v>
+        <v>0.01289017597074197</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05402299217588204</v>
+        <v>0.05258000619977658</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5970</v>
+        <v>5645</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004154850465285725</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02476011991130785</v>
+        <v>0.02341606199668251</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -7677,19 +7677,19 @@
         <v>10914</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5087</v>
+        <v>5212</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20372</v>
+        <v>20672</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01805116665288868</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008414058720064888</v>
+        <v>0.008619824584844889</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03369430074963185</v>
+        <v>0.03419076447737646</v>
       </c>
     </row>
     <row r="24">
@@ -7706,19 +7706,19 @@
         <v>14034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7650</v>
+        <v>6767</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23402</v>
+        <v>22938</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0386068854850263</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0210449922211567</v>
+        <v>0.01861444158346326</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06437485706170312</v>
+        <v>0.06310021666072162</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -7727,19 +7727,19 @@
         <v>5107</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1790</v>
+        <v>1439</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13646</v>
+        <v>12970</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02118446437497831</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00742476841414</v>
+        <v>0.005967245590717683</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05660007924896507</v>
+        <v>0.05379428069053455</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -7748,19 +7748,19 @@
         <v>19142</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11611</v>
+        <v>10831</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30297</v>
+        <v>31933</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0316595576891417</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01920381022118051</v>
+        <v>0.01791357687165892</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05010939326889282</v>
+        <v>0.05281581524736683</v>
       </c>
     </row>
     <row r="25">
@@ -7777,19 +7777,19 @@
         <v>58674</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45538</v>
+        <v>45972</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74962</v>
+        <v>74519</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.161405545425359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1252705751568159</v>
+        <v>0.1264637640784357</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2062106283531907</v>
+        <v>0.2049928297361125</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -7798,19 +7798,19 @@
         <v>16893</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9872</v>
+        <v>9535</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26934</v>
+        <v>25851</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07006795936167298</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04094515008947674</v>
+        <v>0.03955016783152666</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1117157764285711</v>
+        <v>0.1072237702830207</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -7819,19 +7819,19 @@
         <v>75567</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>59015</v>
+        <v>59214</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94698</v>
+        <v>92953</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1249839627726883</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09760817795817046</v>
+        <v>0.09793720746158435</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1566258128227681</v>
+        <v>0.1537392627318196</v>
       </c>
     </row>
     <row r="26">
@@ -7848,19 +7848,19 @@
         <v>271950</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>254564</v>
+        <v>252271</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>289974</v>
+        <v>288711</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7481021518431783</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7002757344024958</v>
+        <v>0.6939679492138072</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.797683034835986</v>
+        <v>0.794208549484316</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>200</v>
@@ -7869,19 +7869,19 @@
         <v>218093</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>207491</v>
+        <v>207017</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>227022</v>
+        <v>226608</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9045927257980629</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8606204453004577</v>
+        <v>0.8586524000888059</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9416308808749938</v>
+        <v>0.9399136376810847</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>446</v>
@@ -7890,19 +7890,19 @@
         <v>490044</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>468694</v>
+        <v>469746</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>508345</v>
+        <v>510277</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8105040021579828</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7751926134604151</v>
+        <v>0.7769336018301422</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8407732155451449</v>
+        <v>0.8439693448001103</v>
       </c>
     </row>
     <row r="27">
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4815</v>
+        <v>4935</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005853120136786384</v>
@@ -8006,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02924653543878656</v>
+        <v>0.02998132021422032</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5330</v>
+        <v>4796</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003615625108961087</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02000008896260341</v>
+        <v>0.01799839650685454</v>
       </c>
     </row>
     <row r="29">
@@ -8104,19 +8104,19 @@
         <v>9250</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4398</v>
+        <v>4311</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17486</v>
+        <v>17405</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05619278056835351</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02671627199996937</v>
+        <v>0.026185792415091</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.106221048789323</v>
+        <v>0.1057292934059561</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7682</v>
+        <v>7084</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01171745169848941</v>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0754096051335114</v>
+        <v>0.06953362657404613</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -8146,19 +8146,19 @@
         <v>10444</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5340</v>
+        <v>5217</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>20048</v>
+        <v>19142</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03919102340608673</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02003879944162096</v>
+        <v>0.01957598454273189</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07522886732571407</v>
+        <v>0.07183128247630534</v>
       </c>
     </row>
     <row r="31">
@@ -8175,19 +8175,19 @@
         <v>24570</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15183</v>
+        <v>15801</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35475</v>
+        <v>36624</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1492561082934149</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0922303725666621</v>
+        <v>0.09598589796802508</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2154999606660349</v>
+        <v>0.222476891782612</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -8196,19 +8196,19 @@
         <v>11458</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5673</v>
+        <v>5833</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>20380</v>
+        <v>20253</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1124729895806414</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05568687340884628</v>
+        <v>0.05725481965604323</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2000584542563436</v>
+        <v>0.1988069226996791</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>29</v>
@@ -8217,19 +8217,19 @@
         <v>36028</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>24831</v>
+        <v>24934</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48248</v>
+        <v>50122</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1351948822627929</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09317970482862936</v>
+        <v>0.09356393395133575</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1810485927912349</v>
+        <v>0.1880825500448776</v>
       </c>
     </row>
     <row r="32">
@@ -8246,19 +8246,19 @@
         <v>129834</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>116729</v>
+        <v>116891</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>139640</v>
+        <v>140744</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7886979910014452</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.709089353715271</v>
+        <v>0.7100771523618286</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8482664163576278</v>
+        <v>0.8549730246385173</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>77</v>
@@ -8267,19 +8267,19 @@
         <v>89220</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>80348</v>
+        <v>81197</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>95574</v>
+        <v>95102</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8758095587208692</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7887178492525323</v>
+        <v>0.7970505501751423</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9381743417924013</v>
+        <v>0.9335414714623996</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>193</v>
@@ -8288,19 +8288,19 @@
         <v>219054</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>204559</v>
+        <v>204526</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>231047</v>
+        <v>231916</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8219984692221592</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7676032872786009</v>
+        <v>0.7674815988552034</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8670018206591494</v>
+        <v>0.8702622618032675</v>
       </c>
     </row>
     <row r="33">
@@ -8392,19 +8392,19 @@
         <v>18094</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10382</v>
+        <v>9895</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>29151</v>
+        <v>27836</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01289171733712194</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007397309049639162</v>
+        <v>0.007049815137971237</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02076960374557328</v>
+        <v>0.01983312111376644</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -8413,19 +8413,19 @@
         <v>7240</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2794</v>
+        <v>2819</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14490</v>
+        <v>14555</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007063300516272937</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002726290146518547</v>
+        <v>0.002750547161555125</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01413725933887033</v>
+        <v>0.01420026146127227</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>23</v>
@@ -8434,19 +8434,19 @@
         <v>25334</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>16767</v>
+        <v>16135</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>37143</v>
+        <v>37695</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01043178943631764</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006904239392898576</v>
+        <v>0.006643938842395154</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01529470713469806</v>
+        <v>0.01552202206930167</v>
       </c>
     </row>
     <row r="35">
@@ -8463,19 +8463,19 @@
         <v>18894</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10657</v>
+        <v>11602</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31172</v>
+        <v>30090</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01346200331041959</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007593014159581048</v>
+        <v>0.008266527225342947</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02220987128206897</v>
+        <v>0.02143907729956856</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -8484,19 +8484,19 @@
         <v>5616</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1958</v>
+        <v>1887</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12191</v>
+        <v>11934</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005479554465579228</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001910635340358572</v>
+        <v>0.001841201917866341</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01189355594620111</v>
+        <v>0.01164304426804628</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>22</v>
@@ -8505,19 +8505,19 @@
         <v>24511</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>15810</v>
+        <v>15823</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>36790</v>
+        <v>37249</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01009294971769704</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006510348635912004</v>
+        <v>0.006515734137332548</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01514913543699056</v>
+        <v>0.01533817437682588</v>
       </c>
     </row>
     <row r="36">
@@ -8534,19 +8534,19 @@
         <v>43659</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>31698</v>
+        <v>30615</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>60426</v>
+        <v>57965</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03110636008383112</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02258406997139865</v>
+        <v>0.02181249219357975</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04305281001565717</v>
+        <v>0.04129943172280386</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -8555,19 +8555,19 @@
         <v>17064</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10032</v>
+        <v>10138</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>27889</v>
+        <v>26635</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01664788871277419</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.009787220465817967</v>
+        <v>0.009891424233656593</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02720989019429163</v>
+        <v>0.02598572057594691</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>55</v>
@@ -8576,19 +8576,19 @@
         <v>60722</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>46033</v>
+        <v>46177</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>78072</v>
+        <v>78969</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02500405164881732</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01895527422427594</v>
+        <v>0.0190147623239766</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03214840759998689</v>
+        <v>0.03251754969870563</v>
       </c>
     </row>
     <row r="37">
@@ -8605,19 +8605,19 @@
         <v>172619</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>147724</v>
+        <v>150114</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>198221</v>
+        <v>198227</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1229889004813821</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1052515134691238</v>
+        <v>0.1069542831210201</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1412296992543315</v>
+        <v>0.1412340467213211</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>68</v>
@@ -8626,19 +8626,19 @@
         <v>72867</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>57825</v>
+        <v>56296</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>91179</v>
+        <v>89946</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07109151362109073</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05641678019122085</v>
+        <v>0.0549248018502794</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08895782374169704</v>
+        <v>0.08775541731898787</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>227</v>
@@ -8647,19 +8647,19 @@
         <v>245486</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>215372</v>
+        <v>214437</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>282109</v>
+        <v>275535</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.101085211393842</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08868495244844245</v>
+        <v>0.08830002480696654</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1161659587052477</v>
+        <v>0.1134588501002309</v>
       </c>
     </row>
     <row r="38">
@@ -8676,19 +8676,19 @@
         <v>1150268</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1119050</v>
+        <v>1121922</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1179423</v>
+        <v>1177664</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8195510187872452</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7973084388419667</v>
+        <v>0.7993548660521989</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8403235364233271</v>
+        <v>0.8390702412318866</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>905</v>
@@ -8697,19 +8697,19 @@
         <v>922182</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>901319</v>
+        <v>902076</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>939119</v>
+        <v>940971</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.899717742684283</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8793628975321526</v>
+        <v>0.8801017416402245</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9162419910120327</v>
+        <v>0.9180487736201578</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1981</v>
@@ -8718,19 +8718,19 @@
         <v>2072450</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2034901</v>
+        <v>2033124</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2108248</v>
+        <v>2106782</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.853385997803326</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8379241871265281</v>
+        <v>0.8371925819497096</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8681269297657829</v>
+        <v>0.867523168364709</v>
       </c>
     </row>
     <row r="39">
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19648</v>
+        <v>18590</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04033813532218894</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1874460490530183</v>
+        <v>0.1773514114961809</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17775</v>
+        <v>20310</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02151097198446991</v>
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09042957752058892</v>
+        <v>0.1033232814204257</v>
       </c>
     </row>
     <row r="7">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18767</v>
+        <v>18931</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05045810725899712</v>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1790361226389589</v>
+        <v>0.1806053782037769</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -9244,16 +9244,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10096</v>
+        <v>11659</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03647369293583544</v>
+        <v>0.03647369293583545</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1100499318334171</v>
+        <v>0.1270778500564017</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -9262,19 +9262,19 @@
         <v>8635</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3209</v>
+        <v>1927</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23101</v>
+        <v>22414</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04393111114126445</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01632309390961569</v>
+        <v>0.00980150499687033</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1175241360045904</v>
+        <v>0.1140281392406196</v>
       </c>
     </row>
     <row r="8">
@@ -9291,19 +9291,19 @@
         <v>95304</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79721</v>
+        <v>77374</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102903</v>
+        <v>102909</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.909203757418814</v>
+        <v>0.9092037574188139</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7605438093881148</v>
+        <v>0.7381557751950665</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9817012213051416</v>
+        <v>0.9817640748974463</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -9312,7 +9312,7 @@
         <v>88397</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>81647</v>
+        <v>80084</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>91743</v>
@@ -9321,7 +9321,7 @@
         <v>0.9635263070641645</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8899500681665827</v>
+        <v>0.8729221499435953</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -9333,19 +9333,19 @@
         <v>183700</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>165599</v>
+        <v>162756</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>191447</v>
+        <v>191532</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9345579168742656</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8424702013104342</v>
+        <v>0.8280065942406553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.973967604531966</v>
+        <v>0.9744013200624541</v>
       </c>
     </row>
     <row r="9">
@@ -9440,16 +9440,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12551</v>
+        <v>12734</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.006264029928581911</v>
+        <v>0.006264029928581912</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03192979060313938</v>
+        <v>0.03239643651790453</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -9461,16 +9461,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5311</v>
+        <v>6214</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.003369283780076199</v>
+        <v>0.0033692837800762</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01677386057617729</v>
+        <v>0.01962627800010209</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14004</v>
+        <v>14355</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00497255078192574</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01973289211247194</v>
+        <v>0.02022717255932809</v>
       </c>
     </row>
     <row r="11">
@@ -9508,19 +9508,19 @@
         <v>4279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11799</v>
+        <v>11649</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01088526532124418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00321176507587691</v>
+        <v>0.00317732956830962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03001652102745841</v>
+        <v>0.02963563922775515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -9529,19 +9529,19 @@
         <v>2940</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8087</v>
+        <v>8949</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.00928453042808374</v>
+        <v>0.009284530428083741</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00232095982816725</v>
+        <v>0.002375031804492255</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02554156647133453</v>
+        <v>0.02826404008677679</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -9550,19 +9550,19 @@
         <v>7218</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2690</v>
+        <v>2307</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14808</v>
+        <v>15070</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01017110400008351</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003789723738363117</v>
+        <v>0.003251211351439365</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02086536912374885</v>
+        <v>0.0212349820647158</v>
       </c>
     </row>
     <row r="12">
@@ -9582,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16805</v>
+        <v>14443</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01132408153551705</v>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04275246627128194</v>
+        <v>0.03674305594801486</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -9603,16 +9603,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6236</v>
+        <v>7069</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.006355963299790996</v>
+        <v>0.006355963299790997</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01969607991463032</v>
+        <v>0.02232632664605128</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -9621,19 +9621,19 @@
         <v>6464</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1830</v>
+        <v>1905</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17694</v>
+        <v>18147</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009107575917960726</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002577879291644859</v>
+        <v>0.002683922602269991</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02493164117355429</v>
+        <v>0.02556972170010018</v>
       </c>
     </row>
     <row r="13">
@@ -9650,19 +9650,19 @@
         <v>27494</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16408</v>
+        <v>15669</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46454</v>
+        <v>46791</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06994656636750615</v>
+        <v>0.06994656636750617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.041742948457736</v>
+        <v>0.03986354424558561</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.118182268011389</v>
+        <v>0.119039835467604</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -9671,19 +9671,19 @@
         <v>15059</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8538</v>
+        <v>9299</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23101</v>
+        <v>24471</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04756063745140934</v>
+        <v>0.04756063745140935</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02696395131975667</v>
+        <v>0.02937023101305749</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0729588754035949</v>
+        <v>0.07728568743486131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -9692,19 +9692,19 @@
         <v>42553</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29011</v>
+        <v>29807</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62198</v>
+        <v>62852</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05995917580181168</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04087777599151971</v>
+        <v>0.04199998261134179</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08764101460561205</v>
+        <v>0.08856192875355783</v>
       </c>
     </row>
     <row r="14">
@@ -9721,19 +9721,19 @@
         <v>354382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>334673</v>
+        <v>333631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369095</v>
+        <v>368360</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9015800568471507</v>
+        <v>0.9015800568471508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8514387586524371</v>
+        <v>0.8487873270603213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9390115778855899</v>
+        <v>0.9371396968773078</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>277</v>
@@ -9742,19 +9742,19 @@
         <v>295550</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>285261</v>
+        <v>284744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>303550</v>
+        <v>303178</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9334295850406397</v>
+        <v>0.9334295850406399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.900934008507523</v>
+        <v>0.8993013174714242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9586971047572126</v>
+        <v>0.9575225672702725</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>504</v>
@@ -9763,19 +9763,19 @@
         <v>649932</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>627915</v>
+        <v>625972</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>666462</v>
+        <v>666483</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9157895934982183</v>
+        <v>0.9157895934982184</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8847666849523034</v>
+        <v>0.8820285435204881</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9390807272336076</v>
+        <v>0.9391098657357119</v>
       </c>
     </row>
     <row r="15">
@@ -9867,19 +9867,19 @@
         <v>14501</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8217</v>
+        <v>8630</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24864</v>
+        <v>24644</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02741005849554858</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01553259665571986</v>
+        <v>0.01631205840465347</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04700003067278995</v>
+        <v>0.0465834358145886</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -9888,19 +9888,19 @@
         <v>3780</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1320</v>
+        <v>1393</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8229</v>
+        <v>8884</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009533073317342626</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003329330220394733</v>
+        <v>0.003514298143929262</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02075574602923818</v>
+        <v>0.02240786416699705</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -9909,19 +9909,19 @@
         <v>18280</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11146</v>
+        <v>11215</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28224</v>
+        <v>28154</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01975169068267124</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01204292762110595</v>
+        <v>0.01211794027690368</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03049509117232467</v>
+        <v>0.03042025718761792</v>
       </c>
     </row>
     <row r="17">
@@ -9938,19 +9938,19 @@
         <v>7309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3077</v>
+        <v>2994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16145</v>
+        <v>16660</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01381588281183786</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005816442234960187</v>
+        <v>0.005660010148980173</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03051834519242946</v>
+        <v>0.0314913118882519</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -9959,19 +9959,19 @@
         <v>5952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2454</v>
+        <v>2626</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11471</v>
+        <v>11348</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01501106578078186</v>
+        <v>0.01501106578078185</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006188353353823214</v>
+        <v>0.006622120412610966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02893170752461608</v>
+        <v>0.02862071051746875</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -9980,19 +9980,19 @@
         <v>13261</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7184</v>
+        <v>7506</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22108</v>
+        <v>23505</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01432789032812862</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00776212507545854</v>
+        <v>0.008110359713502269</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02388743284999359</v>
+        <v>0.02539681017264111</v>
       </c>
     </row>
     <row r="18">
@@ -10009,19 +10009,19 @@
         <v>10175</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4642</v>
+        <v>4602</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19405</v>
+        <v>18854</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01923352975532662</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008773971923791469</v>
+        <v>0.008699663147461031</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.036679603231987</v>
+        <v>0.03563808381339404</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -10030,19 +10030,19 @@
         <v>9173</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4689</v>
+        <v>4924</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15000</v>
+        <v>15559</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.023135542361029</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0118271145455982</v>
+        <v>0.01241881380090855</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03783169026976617</v>
+        <v>0.03924260867448946</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -10051,19 +10051,19 @@
         <v>19348</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12179</v>
+        <v>11616</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29431</v>
+        <v>28953</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.02090512300480716</v>
+        <v>0.02090512300480717</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01315933773047001</v>
+        <v>0.01255077813634879</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0317996227722822</v>
+        <v>0.03128290496511665</v>
       </c>
     </row>
     <row r="19">
@@ -10080,19 +10080,19 @@
         <v>60310</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48047</v>
+        <v>45372</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79261</v>
+        <v>76337</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1140002397419691</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09082085178467299</v>
+        <v>0.08576477101302987</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.149822439752639</v>
+        <v>0.1442964533707867</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -10101,19 +10101,19 @@
         <v>29775</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21772</v>
+        <v>21504</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39206</v>
+        <v>38548</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07509689657871815</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05491224912785402</v>
+        <v>0.05423654102370516</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09888325602379783</v>
+        <v>0.09722443548591152</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -10122,19 +10122,19 @@
         <v>90084</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73005</v>
+        <v>74948</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108740</v>
+        <v>107953</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09733433617239072</v>
+        <v>0.09733433617239073</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07888041205295292</v>
+        <v>0.08098047903170896</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1174910986752086</v>
+        <v>0.1166412199159472</v>
       </c>
     </row>
     <row r="20">
@@ -10151,19 +10151,19 @@
         <v>436736</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>414981</v>
+        <v>417954</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>452301</v>
+        <v>453771</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8255402891953177</v>
+        <v>0.825540289195318</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7844179448429426</v>
+        <v>0.7900381581332269</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8549621417392957</v>
+        <v>0.8577414720790263</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>478</v>
@@ -10172,19 +10172,19 @@
         <v>347804</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>335882</v>
+        <v>335737</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>357823</v>
+        <v>358410</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8772234219621283</v>
+        <v>0.8772234219621284</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8471532177121085</v>
+        <v>0.8467889185383001</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9024921237221187</v>
+        <v>0.9039724646376772</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>861</v>
@@ -10193,19 +10193,19 @@
         <v>784540</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>761878</v>
+        <v>760997</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>805401</v>
+        <v>804604</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8476809598120022</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8231954050057936</v>
+        <v>0.822243809536661</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8702207471945694</v>
+        <v>0.8693596999599618</v>
       </c>
     </row>
     <row r="21">
@@ -10297,19 +10297,19 @@
         <v>14157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7034</v>
+        <v>7775</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22804</v>
+        <v>25757</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02610241647800246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01296946056578298</v>
+        <v>0.01433540889956137</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04204674490059118</v>
+        <v>0.04749091013084992</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -10318,19 +10318,19 @@
         <v>3473</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7586</v>
+        <v>7725</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.007654088589433097</v>
+        <v>0.007654088589433096</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002963704618964854</v>
+        <v>0.002939525396811066</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01671684437587782</v>
+        <v>0.0170220489592184</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -10339,19 +10339,19 @@
         <v>17630</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10553</v>
+        <v>10198</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28346</v>
+        <v>28549</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01769817213037643</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01059419092483141</v>
+        <v>0.01023718805525277</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02845554751688071</v>
+        <v>0.02865916912549592</v>
       </c>
     </row>
     <row r="23">
@@ -10368,19 +10368,19 @@
         <v>10708</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5382</v>
+        <v>5196</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19045</v>
+        <v>19766</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01974473444142909</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009923883740644993</v>
+        <v>0.009580196411352158</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03511542395263061</v>
+        <v>0.03644471846431976</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -10389,19 +10389,19 @@
         <v>6211</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11792</v>
+        <v>11722</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01368624583665328</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006092332390189229</v>
+        <v>0.00609893109702129</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0259843835947705</v>
+        <v>0.02583013746456697</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -10410,19 +10410,19 @@
         <v>16919</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27044</v>
+        <v>26672</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01698475430017238</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01122219073355527</v>
+        <v>0.01025979869186354</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02714868609215807</v>
+        <v>0.02677467072179136</v>
       </c>
     </row>
     <row r="24">
@@ -10439,19 +10439,19 @@
         <v>24233</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16241</v>
+        <v>15483</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>37475</v>
+        <v>35797</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0446822305168854</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02994516499230712</v>
+        <v>0.02854891381231715</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06909761921441987</v>
+        <v>0.06600439265601643</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -10460,19 +10460,19 @@
         <v>3991</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1392</v>
+        <v>1879</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8138</v>
+        <v>8118</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008795003609693918</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003068347879457798</v>
+        <v>0.004141623640477399</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01793366526566638</v>
+        <v>0.01788978745856915</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -10481,19 +10481,19 @@
         <v>28224</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19442</v>
+        <v>19399</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>41914</v>
+        <v>40260</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02833359308435083</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01951755467982836</v>
+        <v>0.01947383654329129</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04207589325062931</v>
+        <v>0.04041598555377316</v>
       </c>
     </row>
     <row r="25">
@@ -10510,19 +10510,19 @@
         <v>55680</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41715</v>
+        <v>42378</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>72633</v>
+        <v>71334</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1026648133018891</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07691588426239569</v>
+        <v>0.07813777891097473</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1339235736189535</v>
+        <v>0.1315293893629754</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -10531,19 +10531,19 @@
         <v>31643</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23837</v>
+        <v>23970</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41912</v>
+        <v>41627</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06972989118734083</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05252701881202723</v>
+        <v>0.05282014358301935</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09235751988385353</v>
+        <v>0.09172996286564759</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -10552,19 +10552,19 @@
         <v>87323</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73176</v>
+        <v>72039</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>105507</v>
+        <v>105583</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08766111569348969</v>
+        <v>0.08766111569348968</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07345952456295578</v>
+        <v>0.07231798741575486</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1059155561051378</v>
+        <v>0.1059912047152758</v>
       </c>
     </row>
     <row r="26">
@@ -10581,19 +10581,19 @@
         <v>437568</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>418250</v>
+        <v>418497</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>456064</v>
+        <v>455396</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8068058052617938</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7711867179087489</v>
+        <v>0.7716424898816571</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8409093553326521</v>
+        <v>0.8396774507270108</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>636</v>
@@ -10602,19 +10602,19 @@
         <v>408482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>397516</v>
+        <v>398248</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>418033</v>
+        <v>418156</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9001347707768788</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8759691629009906</v>
+        <v>0.8775838517314773</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9211812210038084</v>
+        <v>0.9214533135080493</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1054</v>
@@ -10623,19 +10623,19 @@
         <v>846050</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>823031</v>
+        <v>823310</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>865917</v>
+        <v>867050</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8493223647916106</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.826214748944508</v>
+        <v>0.8264949030011483</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8692660735219673</v>
+        <v>0.8704040269942311</v>
       </c>
     </row>
     <row r="27">
@@ -10727,19 +10727,19 @@
         <v>9617</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5144</v>
+        <v>4782</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17909</v>
+        <v>16814</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02933575838578576</v>
+        <v>0.02933575838578575</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01569122731301427</v>
+        <v>0.01458788127353018</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05462965392695297</v>
+        <v>0.05129043058032258</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -10748,19 +10748,19 @@
         <v>1687</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5643</v>
+        <v>4555</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.007207037776354367</v>
+        <v>0.007207037776354366</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002291640252512344</v>
+        <v>0.00226890724222404</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02411101821677305</v>
+        <v>0.01946225738557124</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -10769,19 +10769,19 @@
         <v>11304</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6388</v>
+        <v>6092</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>19488</v>
+        <v>18680</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02011775316014293</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01136957380025071</v>
+        <v>0.01084143156805354</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03468270194446819</v>
+        <v>0.03324532057215578</v>
       </c>
     </row>
     <row r="29">
@@ -10798,19 +10798,19 @@
         <v>8564</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3743</v>
+        <v>3849</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15771</v>
+        <v>15314</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02612393650430127</v>
+        <v>0.02612393650430126</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01141670848161588</v>
+        <v>0.01174156662157429</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04810804883737418</v>
+        <v>0.04671297003116875</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -10819,19 +10819,19 @@
         <v>2544</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6010</v>
+        <v>6382</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.01086768999204312</v>
+        <v>0.01086768999204311</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003032531137832572</v>
+        <v>0.002981048156143788</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02567819522082067</v>
+        <v>0.02726824080101166</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -10840,19 +10840,19 @@
         <v>11108</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6033</v>
+        <v>6127</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18534</v>
+        <v>19411</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01976874938997019</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01073727320372199</v>
+        <v>0.01090512751332151</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03298627743519991</v>
+        <v>0.03454601712569522</v>
       </c>
     </row>
     <row r="30">
@@ -10869,19 +10869,19 @@
         <v>18847</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12230</v>
+        <v>12379</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29967</v>
+        <v>28181</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05749214559362749</v>
+        <v>0.05749214559362746</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03730621352884655</v>
+        <v>0.03776219932396976</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09141175161060403</v>
+        <v>0.08596330318480423</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -10890,19 +10890,19 @@
         <v>5674</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2989</v>
+        <v>2858</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10397</v>
+        <v>9899</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02424227954142011</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01276870018660721</v>
+        <v>0.0122106417356186</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04441874331108189</v>
+        <v>0.0422936882189437</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>30</v>
@@ -10911,19 +10911,19 @@
         <v>24521</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>16617</v>
+        <v>16798</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35119</v>
+        <v>34625</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04364148317030867</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02957332882006524</v>
+        <v>0.02989618679707254</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06250324732092791</v>
+        <v>0.0616239170064827</v>
       </c>
     </row>
     <row r="31">
@@ -10940,19 +10940,19 @@
         <v>42918</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>32158</v>
+        <v>31820</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>55486</v>
+        <v>54627</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1309177237155316</v>
+        <v>0.1309177237155315</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09809534403219101</v>
+        <v>0.0970658180733668</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1692558118952172</v>
+        <v>0.1666350912502669</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -10961,19 +10961,19 @@
         <v>17262</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11638</v>
+        <v>12145</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24045</v>
+        <v>24748</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.07375206616287112</v>
+        <v>0.07375206616287111</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04972152052442034</v>
+        <v>0.05189069314977575</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1027312830043754</v>
+        <v>0.1057361003615913</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>76</v>
@@ -10982,19 +10982,19 @@
         <v>60180</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>47308</v>
+        <v>48066</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>74140</v>
+        <v>74530</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1071046285371713</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08419611502471033</v>
+        <v>0.08554408998350292</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.131949673350904</v>
+        <v>0.1326428108307597</v>
       </c>
     </row>
     <row r="32">
@@ -11011,19 +11011,19 @@
         <v>247877</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>232116</v>
+        <v>231788</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>263850</v>
+        <v>260966</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7561304358007541</v>
+        <v>0.7561304358007538</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7080516436398872</v>
+        <v>0.7070537913748464</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.804855435974793</v>
+        <v>0.796059147883515</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>345</v>
@@ -11032,19 +11032,19 @@
         <v>206892</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>198667</v>
+        <v>198755</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>213542</v>
+        <v>213474</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8839309265273114</v>
+        <v>0.8839309265273112</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.848789727884557</v>
+        <v>0.8491676702710281</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9123443033385368</v>
+        <v>0.9120513460947945</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>613</v>
@@ -11053,19 +11053,19 @@
         <v>454769</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>436397</v>
+        <v>437617</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>470601</v>
+        <v>472217</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8093673857424069</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7766693602811988</v>
+        <v>0.7788416457791605</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8375445736846659</v>
+        <v>0.8404210368951095</v>
       </c>
     </row>
     <row r="33">
@@ -11157,19 +11157,19 @@
         <v>40736</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>29649</v>
+        <v>28539</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>56983</v>
+        <v>55215</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.02147312944403758</v>
+        <v>0.02147312944403757</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01562860823654888</v>
+        <v>0.01504376783046878</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03003688084011853</v>
+        <v>0.02910505422375898</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -11178,19 +11178,19 @@
         <v>10007</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5607</v>
+        <v>6236</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16680</v>
+        <v>16438</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.006703773289831702</v>
+        <v>0.006703773289831701</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003756529894434882</v>
+        <v>0.004177368515662861</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01117416604588592</v>
+        <v>0.01101195096453852</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>50</v>
@@ -11199,19 +11199,19 @@
         <v>50743</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>38329</v>
+        <v>37570</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>67516</v>
+        <v>67627</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01496938061140537</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0113072736509649</v>
+        <v>0.01108322146938028</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01991725019674926</v>
+        <v>0.01995000033547885</v>
       </c>
     </row>
     <row r="35">
@@ -11228,19 +11228,19 @@
         <v>30860</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>20989</v>
+        <v>21793</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>45068</v>
+        <v>45909</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01626712931257699</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01106374351843375</v>
+        <v>0.01148775893005848</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02375644572708951</v>
+        <v>0.02419960634732372</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>24</v>
@@ -11249,19 +11249,19 @@
         <v>17646</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11570</v>
+        <v>11314</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>26734</v>
+        <v>25263</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01182134464653205</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007750800461042446</v>
+        <v>0.007579692229853418</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01790990702799998</v>
+        <v>0.01692397059699532</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>52</v>
@@ -11270,19 +11270,19 @@
         <v>48506</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>36588</v>
+        <v>36369</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>63726</v>
+        <v>63888</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01430940911610857</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01079369798002015</v>
+        <v>0.0107289244293232</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01879934744343575</v>
+        <v>0.01884726247191964</v>
       </c>
     </row>
     <row r="36">
@@ -11299,19 +11299,19 @@
         <v>61935</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>47603</v>
+        <v>45615</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>82877</v>
+        <v>82555</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03264741425048635</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02509244137711494</v>
+        <v>0.02404491724443776</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04368660619055983</v>
+        <v>0.04351668149383085</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>30</v>
@@ -11320,19 +11320,19 @@
         <v>20851</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14494</v>
+        <v>14023</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>30287</v>
+        <v>28836</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01396827243789586</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.009709896461355448</v>
+        <v>0.009394096617175711</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02029013534253439</v>
+        <v>0.0193179182650337</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>84</v>
@@ -11341,19 +11341,19 @@
         <v>82786</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>66128</v>
+        <v>65241</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>107251</v>
+        <v>105048</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02442197466532124</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01950791427567212</v>
+        <v>0.01924620454552379</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03163936551679355</v>
+        <v>0.030989435971219</v>
       </c>
     </row>
     <row r="37">
@@ -11370,19 +11370,19 @@
         <v>191690</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>163651</v>
+        <v>165128</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>225314</v>
+        <v>220550</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1010443767578888</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08626415998776531</v>
+        <v>0.08704313136466946</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1187681202469792</v>
+        <v>0.1162571269477381</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>138</v>
@@ -11391,19 +11391,19 @@
         <v>97086</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>81706</v>
+        <v>82306</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>113755</v>
+        <v>112969</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06503972716403698</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0547363297767138</v>
+        <v>0.05513863918991711</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07620653725903044</v>
+        <v>0.07568011174177665</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>314</v>
@@ -11412,19 +11412,19 @@
         <v>288776</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>255896</v>
+        <v>258381</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>321100</v>
+        <v>324434</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08518957609356449</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07548988476176657</v>
+        <v>0.07622297360795725</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09472533098962925</v>
+        <v>0.09570897534299816</v>
       </c>
     </row>
     <row r="38">
@@ -11441,19 +11441,19 @@
         <v>1571866</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1532190</v>
+        <v>1534029</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1607509</v>
+        <v>1606983</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8285679502350103</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8076534264977281</v>
+        <v>0.8086231749448919</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8473562968216474</v>
+        <v>0.8470788778287049</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1790</v>
@@ -11462,19 +11462,19 @@
         <v>1347125</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1325395</v>
+        <v>1326356</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1366078</v>
+        <v>1366408</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.9024668824617035</v>
+        <v>0.9024668824617033</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8879095280803238</v>
+        <v>0.8885535704781146</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9151642514530244</v>
+        <v>0.9153850097445511</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3130</v>
@@ -11483,19 +11483,19 @@
         <v>2918991</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2877599</v>
+        <v>2873947</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2958818</v>
+        <v>2958972</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.8611096595136005</v>
+        <v>0.8611096595136002</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8488989881236522</v>
+        <v>0.8478216298229616</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8728587081273651</v>
+        <v>0.8729040500084054</v>
       </c>
     </row>
     <row r="39">
